--- a/imageCreationExcel/back/105/105_1.xlsx
+++ b/imageCreationExcel/back/105/105_1.xlsx
@@ -486,24 +486,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>7.852274838339385</v>
+        <v>1.002456517481565</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.8452608747872231</v>
+        <v>0.7468436381372975</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -511,14 +511,14 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.6324684462401315</v>
+        <v>0.804077434199168</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_7_brightness7.852_contrast0.845_sharpness0.632.jpg</t>
+          <t>1_1_contrast1.002_gamma0.747_sharpness0.804.jpg</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>15.6956093479731</v>
+        <v>18.77861571573612</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.8776290583723345</v>
+        <v>1.167540136998261</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -553,14 +553,14 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.5926968639860913</v>
+        <v>0.6529466543587934</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_B_brightness15.696_contrast0.878_gamma0.593.jpg</t>
+          <t>2_I_brightness18.779_contrast1.168_gamma0.653.jpg</t>
         </is>
       </c>
     </row>
@@ -570,39 +570,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>16.48422139123294</v>
+        <v>0.8141807806940344</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.9003443942443417</v>
+        <v>0.1792329577898335</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.6034971894793479</v>
+        <v>18.09396947043922</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_P_brightness16.484_contrast0.9_gamma0.603.jpg</t>
+          <t>3_2_gamma0.814_sharpness0.179_equalization18.094.jpg</t>
         </is>
       </c>
     </row>
@@ -612,39 +612,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>18.2994342750454</v>
+        <v>1.090859532528432</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.8244097850460119</v>
+        <v>0.6228036860915966</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.5942661124390601</v>
+        <v>23.47418507534855</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_S_brightness18.299_contrast0.824_gamma0.594.jpg</t>
+          <t>4_I_contrast1.091_gamma0.623_equalization23.474.jpg</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>19.89668395423579</v>
+        <v>16.05103089623911</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -671,22 +671,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.8413915568684399</v>
+        <v>1.110688097534403</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.5927525629219111</v>
+        <v>0.8811868534607283</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_E_brightness19.897_contrast0.841_gamma0.593.jpg</t>
+          <t>5_1_brightness16.051_contrast1.111_sharpness0.881.jpg</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -705,15 +705,15 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9.427312646052169</v>
+        <v>5.242017684173947</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.8730707297657233</v>
+        <v>0.6017702351240585</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -721,14 +721,14 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.08476701080780696</v>
+        <v>0.5397565050866604</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_T_brightness9.427_contrast0.873_sharpness0.085.jpg</t>
+          <t>6_1_brightness5.242_gamma0.602_sharpness0.54.jpg</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.9734682713647662</v>
+        <v>1.133368379568073</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -755,22 +755,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.6019641094619081</v>
+        <v>0.7111644912129218</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.7486937356530323</v>
+        <v>24.27870143827779</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_I_contrast0.973_gamma0.602_sharpness0.749.jpg</t>
+          <t>7_8_contrast1.133_gamma0.711_equalization24.279.jpg</t>
         </is>
       </c>
     </row>
@@ -780,7 +780,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.8495030066591834</v>
+        <v>1.030301695551364</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -797,22 +797,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.6238146881361468</v>
+        <v>1.050539334021314</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.00866120711601193</v>
+        <v>9.852215291580471</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_E_contrast0.85_gamma0.624_sharpness0.009.jpg</t>
+          <t>8_9_contrast1.03_gamma1.051_equalization9.852.jpg</t>
         </is>
       </c>
     </row>
@@ -822,39 +822,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6.217700760124121</v>
+        <v>0.8916174784564828</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.01073916624306</v>
+        <v>0.9538493965979387</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.8542422220098679</v>
+        <v>21.82162805730866</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_3_brightness6.218_gamma1.011_sharpness0.854.jpg</t>
+          <t>9_0_contrast0.892_sharpness0.954_equalization21.822.jpg</t>
         </is>
       </c>
     </row>
@@ -864,24 +864,24 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.9391017214726824</v>
+        <v>15.65299956738652</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.880836823528092</v>
+        <v>1.115661457177711</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -889,14 +889,14 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.1626907730785425</v>
+        <v>0.9721127575572128</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_I_contrast0.939_gamma0.881_sharpness0.163.jpg</t>
+          <t>10_9_brightness15.653_contrast1.116_sharpness0.972.jpg</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -915,15 +915,15 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.012292447130483</v>
+        <v>0.9585222599583273</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.04502700456878</v>
+        <v>0.2714494101710022</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -931,14 +931,14 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>7.67216887836531</v>
+        <v>26.30960822566563</v>
       </c>
       <c r="I12" t="n">
         <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_C_contrast1.012_gamma1.045_equalization7.672.jpg</t>
+          <t>11_8_contrast0.959_sharpness0.271_equalization26.31.jpg</t>
         </is>
       </c>
     </row>
@@ -948,16 +948,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.8578331344251483</v>
+        <v>0.5117709105462179</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -965,7 +965,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.3120319136218023</v>
+        <v>0.5412246474215826</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -973,14 +973,14 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>23.39858241989708</v>
+        <v>21.70912133595951</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_S_contrast0.858_sharpness0.312_equalization23.399.jpg</t>
+          <t>12_2_gamma0.512_sharpness0.541_equalization21.709.jpg</t>
         </is>
       </c>
     </row>
@@ -990,39 +990,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.5342056170338646</v>
+        <v>6.207056917000382</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.5560665085491057</v>
+        <v>1.153528943528574</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>21.02184458367605</v>
+        <v>0.9645670874155192</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_E_gamma0.534_sharpness0.556_equalization21.022.jpg</t>
+          <t>13_8_brightness6.207_contrast1.154_gamma0.965.jpg</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1041,7 +1041,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.8596175182787408</v>
+        <v>0.8496176496479086</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.8595711837848528</v>
+        <v>0.7128229616111496</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1057,14 +1057,14 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>16.54738448243438</v>
+        <v>14.56476863601412</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_P_contrast0.86_gamma0.86_equalization16.547.jpg</t>
+          <t>14_T_contrast0.85_gamma0.713_equalization14.565.jpg</t>
         </is>
       </c>
     </row>
@@ -1074,16 +1074,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>12.55771428792324</v>
+        <v>1.172316108970149</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.8951755853229644</v>
+        <v>0.7983898250227639</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1099,14 +1099,14 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.9724743018134985</v>
+        <v>0.5603526412521017</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_T_brightness12.558_gamma0.895_sharpness0.972.jpg</t>
+          <t>15_S_contrast1.172_gamma0.798_sharpness0.56.jpg</t>
         </is>
       </c>
     </row>
@@ -1116,16 +1116,16 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.9841706705414168</v>
+        <v>8.193822401927928</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.6761511781653302</v>
+        <v>0.6593833477040606</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1141,14 +1141,14 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.9894899721658075</v>
+        <v>0.4096322604722571</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_P_contrast0.984_gamma0.676_sharpness0.989.jpg</t>
+          <t>16_3_brightness8.194_gamma0.659_sharpness0.41.jpg</t>
         </is>
       </c>
     </row>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1167,15 +1167,15 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.8926054130048957</v>
+        <v>0.9205715835678525</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.7631369884376122</v>
+        <v>0.521601843179</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1183,14 +1183,14 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>21.94653004465223</v>
+        <v>17.36280835813783</v>
       </c>
       <c r="I18" t="n">
         <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_E_contrast0.893_gamma0.763_equalization21.947.jpg</t>
+          <t>17_T_contrast0.921_sharpness0.522_equalization17.363.jpg</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.011088747826804</v>
+        <v>0.7251138916033036</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.8137577369031869</v>
+        <v>0.7637815567802251</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1225,14 +1225,14 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>22.29260628858913</v>
+        <v>20.0907481095782</v>
       </c>
       <c r="I19" t="n">
         <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_E_gamma1.011_sharpness0.814_equalization22.293.jpg</t>
+          <t>18_0_gamma0.725_sharpness0.764_equalization20.091.jpg</t>
         </is>
       </c>
     </row>
@@ -1242,16 +1242,16 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.8929959120011681</v>
+        <v>19.19779299486312</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1259,22 +1259,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.7533868470128653</v>
+        <v>0.7291336049956749</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>9.72872281634741</v>
+        <v>0.9268852801797771</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_T_contrast0.893_gamma0.753_equalization9.729.jpg</t>
+          <t>19_2_brightness19.198_gamma0.729_sharpness0.927.jpg</t>
         </is>
       </c>
     </row>
@@ -1284,39 +1284,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.9942866920090658</v>
+        <v>19.98544889085316</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.8705377032466619</v>
+        <v>1.174511419655517</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>6.398947737918139</v>
+        <v>0.3182834141165167</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_9_contrast0.994_sharpness0.871_equalization6.399.jpg</t>
+          <t>20_7_brightness19.985_contrast1.175_sharpness0.318.jpg</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1335,30 +1335,30 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>10.08616816086693</v>
+        <v>11.9030879099466</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.8661238173286949</v>
+        <v>0.5612237037659835</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.6682729450992139</v>
+        <v>0.8018764371266278</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_7_brightness10.086_contrast0.866_gamma0.668.jpg</t>
+          <t>21_8_brightness11.903_gamma0.561_sharpness0.802.jpg</t>
         </is>
       </c>
     </row>
@@ -1368,39 +1368,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>3.558737176994438</v>
+        <v>0.8578039081565227</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.1036180318936</v>
+        <v>1.093346577223532</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1.008293604484731</v>
+        <v>0.4938650101026973</v>
       </c>
       <c r="I23" t="n">
         <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_7_brightness3.559_contrast1.104_gamma1.008.jpg</t>
+          <t>22_8_contrast0.858_gamma1.093_sharpness0.494.jpg</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1419,7 +1419,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>4.122528580070148</v>
+        <v>21.28227564688532</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.051720771792172</v>
+        <v>0.6136323790045776</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1435,14 +1435,14 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.7216126529331459</v>
+        <v>0.9193462468672455</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_T_brightness4.123_gamma1.052_sharpness0.722.jpg</t>
+          <t>23_0_brightness21.282_gamma0.614_sharpness0.919.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,39 +1452,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.072964334154392</v>
+        <v>17.7616337840576</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.4863084385640493</v>
+        <v>0.5811935995928966</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>8.169475829322565</v>
+        <v>0.2914767709449727</v>
       </c>
       <c r="I25" t="n">
         <v>4</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_C_contrast1.073_sharpness0.486_equalization8.169.jpg</t>
+          <t>24_7_brightness17.762_gamma0.581_sharpness0.291.jpg</t>
         </is>
       </c>
     </row>
@@ -1494,39 +1494,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>17.20869254545946</v>
+        <v>0.8316819750977275</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.019916260607945</v>
+        <v>0.9647319351232686</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.9941555614396629</v>
+        <v>13.65575038342997</v>
       </c>
       <c r="I26" t="n">
         <v>4</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_1_brightness17.209_contrast1.02_gamma0.994.jpg</t>
+          <t>25_E_contrast0.832_sharpness0.965_equalization13.656.jpg</t>
         </is>
       </c>
     </row>
@@ -1536,24 +1536,24 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1.136298773225313</v>
+        <v>10.91347321995436</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.9582542060128874</v>
+        <v>1.154684773972418</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1561,14 +1561,14 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.9816837960186851</v>
+        <v>0.7070222161515418</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_0_contrast1.136_gamma0.958_sharpness0.982.jpg</t>
+          <t>26_C_brightness10.913_contrast1.155_sharpness0.707.jpg</t>
         </is>
       </c>
     </row>
@@ -1578,7 +1578,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1.034643904438443</v>
+        <v>0.646037394464079</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.6233395198915345</v>
+        <v>0.6592959349340688</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1603,14 +1603,14 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>19.91495803885635</v>
+        <v>14.87572013674106</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_S_gamma1.035_sharpness0.623_equalization19.915.jpg</t>
+          <t>27_T_gamma0.646_sharpness0.659_equalization14.876.jpg</t>
         </is>
       </c>
     </row>
@@ -1625,11 +1625,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>27.8534977311494</v>
+        <v>1.025602741646889</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.9953740729141209</v>
+        <v>0.5810104497683273</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1645,14 +1645,14 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.2347027999591087</v>
+        <v>0.6134708296326532</v>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_8_brightness27.853_gamma0.995_sharpness0.235.jpg</t>
+          <t>28_8_contrast1.026_gamma0.581_sharpness0.613.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,39 +1662,39 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>21.29474786391772</v>
+        <v>1.148964863048556</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.8429370610563243</v>
+        <v>0.5007659195133193</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.6440212233104849</v>
+        <v>0.7531939314401765</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_T_brightness21.295_contrast0.843_gamma0.644.jpg</t>
+          <t>29_1_contrast1.149_gamma0.501_sharpness0.753.jpg</t>
         </is>
       </c>
     </row>
@@ -1704,39 +1704,39 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.8350515285075585</v>
+        <v>23.46246626831357</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.5727393739395756</v>
+        <v>1.153722256178503</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>9.319844257777735</v>
+        <v>0.6271049363873406</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_0_contrast0.835_sharpness0.573_equalization9.32.jpg</t>
+          <t>30_8_brightness23.462_contrast1.154_sharpness0.627.jpg</t>
         </is>
       </c>
     </row>
@@ -1746,39 +1746,39 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>24.49961592140683</v>
+        <v>0.8178830989607579</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.8894700252760434</v>
+        <v>0.6333164794312359</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.6964838667375055</v>
+        <v>25.46462568767842</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_7_brightness24.5_contrast0.889_gamma0.696.jpg</t>
+          <t>31_I_contrast0.818_gamma0.633_equalization25.465.jpg</t>
         </is>
       </c>
     </row>
@@ -1788,39 +1788,39 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>2.39634657429197</v>
+        <v>0.8528723177306622</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.8305714015549645</v>
+        <v>0.7420288236189645</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.8109419528995394</v>
+        <v>0.7163274107858515</v>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_E_brightness2.396_contrast0.831_gamma0.811.jpg</t>
+          <t>32_B_contrast0.853_gamma0.742_sharpness0.716.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,39 +1830,39 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.8617248714725648</v>
+        <v>14.12502904528221</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.5914264504302982</v>
+        <v>1.067681030147496</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>14.8141802557648</v>
+        <v>0.7134501931783841</v>
       </c>
       <c r="I34" t="n">
         <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_B_contrast0.862_gamma0.591_equalization14.814.jpg</t>
+          <t>33_T_brightness14.125_contrast1.068_gamma0.713.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,7 +1872,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1881,15 +1881,15 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3.152038739621006</v>
+        <v>16.75003722357627</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.094188200331259</v>
+        <v>0.6923754042492409</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1897,14 +1897,14 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.7536755007008583</v>
+        <v>0.03883402643002945</v>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_9_brightness3.152_contrast1.094_sharpness0.754.jpg</t>
+          <t>34_2_brightness16.75_gamma0.692_sharpness0.039.jpg</t>
         </is>
       </c>
     </row>
@@ -1914,16 +1914,16 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.9588336705399478</v>
+        <v>0.9465247264136409</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.6316728941492449</v>
+        <v>0.9186462262447792</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1939,14 +1939,14 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>19.09737894635009</v>
+        <v>6.412636093386446</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_2_gamma0.959_sharpness0.632_equalization19.097.jpg</t>
+          <t>35_9_contrast0.947_sharpness0.919_equalization6.413.jpg</t>
         </is>
       </c>
     </row>
@@ -1956,39 +1956,39 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.8843789105243622</v>
+        <v>6.510069479557598</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.7971951702564212</v>
+        <v>0.7010659953633583</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>24.23657612157628</v>
+        <v>0.8866298965716627</v>
       </c>
       <c r="I37" t="n">
         <v>4</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_3_gamma0.884_sharpness0.797_equalization24.237.jpg</t>
+          <t>36_E_brightness6.51_gamma0.701_sharpness0.887.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,24 +1998,24 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.981381658327519</v>
+        <v>0.9703202899436697</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.2417147854171287</v>
+        <v>0.9492959894657059</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2023,14 +2023,14 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>8.675313498159841</v>
+        <v>23.61497182561313</v>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_9_gamma0.981_sharpness0.242_equalization8.675.jpg</t>
+          <t>37_B_contrast0.97_gamma0.949_equalization23.615.jpg</t>
         </is>
       </c>
     </row>
@@ -2040,24 +2040,24 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1.054123757012848</v>
+        <v>1.024691585594861</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.041579624661249</v>
+        <v>1.169996626101577</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2065,14 +2065,14 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.252700128537077</v>
+        <v>0.8006052644448556</v>
       </c>
       <c r="I39" t="n">
         <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_1_contrast1.054_gamma1.042_sharpness0.253.jpg</t>
+          <t>38_0_brightness1.025_contrast1.17_sharpness0.801.jpg</t>
         </is>
       </c>
     </row>
@@ -2082,39 +2082,39 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1.162635832511978</v>
+        <v>29.81924517795765</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.358363566671749</v>
+        <v>1.043560215667414</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>4.276254495473593</v>
+        <v>1.037495082984876</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_S_contrast1.163_sharpness0.358_equalization4.276.jpg</t>
+          <t>39_C_brightness29.819_contrast1.044_gamma1.037.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,39 +2124,39 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.8729617317481037</v>
+        <v>13.50219173423941</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.6151201984956971</v>
+        <v>1.12660004388201</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>28.29287063464514</v>
+        <v>1.057139532412696</v>
       </c>
       <c r="I41" t="n">
         <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_E_gamma0.873_sharpness0.615_equalization28.293.jpg</t>
+          <t>40_7_brightness13.502_contrast1.127_gamma1.057.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2175,15 +2175,15 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>9.930783207242742</v>
+        <v>16.49523172671555</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.8948283434305349</v>
+        <v>1.013016327449205</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2191,14 +2191,14 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>0.9656657163254613</v>
+        <v>0.3136517092537225</v>
       </c>
       <c r="I42" t="n">
         <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_8_brightness9.931_gamma0.895_sharpness0.966.jpg</t>
+          <t>41_2_brightness16.495_contrast1.013_sharpness0.314.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,39 +2208,39 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.9101252110265334</v>
+        <v>24.02152518688892</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.078562039650645</v>
+        <v>0.8528214661964943</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>10.87604309071964</v>
+        <v>0.7838503035929147</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_0_contrast0.91_gamma1.079_equalization10.876.jpg</t>
+          <t>42_9_brightness24.022_contrast0.853_sharpness0.784.jpg</t>
         </is>
       </c>
     </row>
@@ -2250,7 +2250,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2259,30 +2259,30 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1.123109084370145</v>
+        <v>1.176002510912743</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.4226368079271848</v>
+        <v>0.8549727818411522</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>26.03979746846852</v>
+        <v>0.3017395245899825</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_E_contrast1.123_sharpness0.423_equalization26.04.jpg</t>
+          <t>43_C_contrast1.176_gamma0.855_sharpness0.302.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,16 +2292,16 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>19.28768594962779</v>
+        <v>1.02716504067003</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2309,22 +2309,22 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.5773579219524968</v>
+        <v>0.7003627909733123</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0.4421492267121205</v>
+        <v>5.42007076744861</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_S_brightness19.288_gamma0.577_sharpness0.442.jpg</t>
+          <t>44_E_contrast1.027_gamma0.7_equalization5.42.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,39 +2334,39 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>2.199353614368798</v>
+        <v>0.8672297181503698</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.9053384911578476</v>
+        <v>0.6122918325527178</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>0.2875669161159251</v>
+        <v>29.08609070686184</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_E_brightness2.199_contrast0.905_sharpness0.288.jpg</t>
+          <t>45_3_gamma0.867_sharpness0.612_equalization29.086.jpg</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2385,7 +2385,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.6768919580788735</v>
+        <v>0.6438423741430005</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.8411413289852269</v>
+        <v>0.5855161506528692</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2401,14 +2401,14 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>6.030246053777176</v>
+        <v>18.83499290231314</v>
       </c>
       <c r="I47" t="n">
         <v>2</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_9_gamma0.677_sharpness0.841_equalization6.03.jpg</t>
+          <t>46_B_gamma0.644_sharpness0.586_equalization18.835.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,39 +2418,39 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>21.67554898830018</v>
+        <v>0.9864484435046479</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.144913592232867</v>
+        <v>0.7833881294781013</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>0.5463754272693583</v>
+        <v>0.7013079128158412</v>
       </c>
       <c r="I48" t="n">
         <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_1_brightness21.676_contrast1.145_gamma0.546.jpg</t>
+          <t>47_3_contrast0.986_gamma0.783_sharpness0.701.jpg</t>
         </is>
       </c>
     </row>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2469,15 +2469,15 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.8844450066980984</v>
+        <v>0.9611299352263949</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.02234337409458202</v>
+        <v>1.027969287355045</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2485,14 +2485,14 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>22.47933506338639</v>
+        <v>19.688724866781</v>
       </c>
       <c r="I49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_I_contrast0.884_sharpness0.022_equalization22.479.jpg</t>
+          <t>48_0_contrast0.961_gamma1.028_equalization19.689.jpg</t>
         </is>
       </c>
     </row>
